--- a/uncorreled_2.xlsx
+++ b/uncorreled_2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="68">
   <si>
     <t>max</t>
   </si>
@@ -429,19 +429,7 @@
     <t>the number of the best decisions R.A.</t>
   </si>
   <si>
-    <t>I avg max</t>
-  </si>
-  <si>
-    <t>I avg min</t>
-  </si>
-  <si>
-    <t>I max</t>
-  </si>
-  <si>
-    <t>I min</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> min max </t>
+    <t>count:</t>
   </si>
 </sst>
 </file>
@@ -13956,8 +13944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15013,6 +15001,9 @@
       <c r="A12" t="s">
         <v>56</v>
       </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -15022,6 +15013,10 @@
         <f xml:space="preserve"> MAX(B2:AW2)</f>
         <v>561</v>
       </c>
+      <c r="E13">
+        <f xml:space="preserve"> COUNTIF(B2:AW2,D13)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -15031,6 +15026,10 @@
         <f xml:space="preserve"> MIN(B2:AW2)</f>
         <v>505</v>
       </c>
+      <c r="E14">
+        <f xml:space="preserve"> COUNTIF(B2:AW2,D14)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -15040,6 +15039,10 @@
         <f xml:space="preserve"> MAX(B3:AW3)</f>
         <v>467</v>
       </c>
+      <c r="E15">
+        <f xml:space="preserve"> COUNTIF(B3:AW3,D15)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -15049,8 +15052,12 @@
         <f xml:space="preserve"> MIN(B3:AW3)</f>
         <v>263</v>
       </c>
+      <c r="E16">
+        <f xml:space="preserve"> COUNTIF(B3:AW3,D16)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -15058,8 +15065,12 @@
         <f xml:space="preserve"> MAX(B4:AW4)</f>
         <v>40</v>
       </c>
+      <c r="E17">
+        <f xml:space="preserve"> COUNTIF(B4:AW4,D17)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -15067,8 +15078,12 @@
         <f xml:space="preserve"> MIN(B4:AW4)</f>
         <v>1</v>
       </c>
+      <c r="E18">
+        <f xml:space="preserve"> COUNTIF(B4:AW4,D18)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -15076,8 +15091,12 @@
         <f xml:space="preserve"> MAX(B5:AW5)</f>
         <v>18.3</v>
       </c>
+      <c r="E19">
+        <f xml:space="preserve"> COUNTIF(B5:AW5,D19)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -15085,8 +15104,12 @@
         <f xml:space="preserve"> MIN(B5:AW5)</f>
         <v>2.4</v>
       </c>
+      <c r="E20">
+        <f xml:space="preserve"> COUNTIF(B5:AW5,D20)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -15095,7 +15118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -15104,50 +15127,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23">
-        <f>COUNTIF(B5:AW5,D19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24">
-        <f>COUNTIF(B5:AW5,D20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25">
-        <f>COUNTIF(B4:AW4,D17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26">
-        <f>COUNTIF(B4:AW4,D18)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="2">
-        <f>COUNTIF(B2:AW2,D14)</f>
-        <v>1</v>
-      </c>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uncorreled_2.xlsx
+++ b/uncorreled_2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="71">
   <si>
     <t>max</t>
   </si>
@@ -431,6 +431,15 @@
   <si>
     <t>count:</t>
   </si>
+  <si>
+    <t>i(average) for best solutions</t>
+  </si>
+  <si>
+    <t>max - i(avg) for the best solutions</t>
+  </si>
+  <si>
+    <t>min - i(avg) for the best solutions</t>
+  </si>
 </sst>
 </file>
 
@@ -13945,7 +13954,7 @@
   <dimension ref="A1:AW28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="A23" sqref="A23:AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15057,7 +15066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -15070,7 +15079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -15083,7 +15092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -15096,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -15109,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -15118,7 +15127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -15127,7 +15136,224 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:AW24" si="0" xml:space="preserve"> IF(B2 =$D$13, B5, "" )</f>
+        <v/>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+      <c r="AH24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AL24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="AN24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="AP24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AR24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="AT24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <f>MAX(A24:AW24)</f>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <f>MIN(A24:AW24)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K28" s="2"/>
     </row>
   </sheetData>
